--- a/data/CM-AM PERSPECTIVE CERTITUDE.xlsx
+++ b/data/CM-AM PERSPECTIVE CERTITUDE.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="176">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="182">
   <si>
     <t>Historique Cours</t>
   </si>
@@ -20,7 +20,7 @@
     <t>Date d'export</t>
   </si>
   <si>
-    <t>29/04/2025</t>
+    <t>31/10/2025</t>
   </si>
   <si>
     <t>Valeur :</t>
@@ -51,6 +51,24 @@
   </si>
   <si>
     <t>Volume</t>
+  </si>
+  <si>
+    <t>26/09/2025</t>
+  </si>
+  <si>
+    <t>29/08/2025</t>
+  </si>
+  <si>
+    <t>25/07/2025</t>
+  </si>
+  <si>
+    <t>27/06/2025</t>
+  </si>
+  <si>
+    <t>30/05/2025</t>
+  </si>
+  <si>
+    <t>25/04/2025</t>
   </si>
   <si>
     <t>28/03/2025</t>
@@ -796,8 +814,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="TableData_0_0" displayName="TableData_0_0" ref="A7:D168" headerRowCount="1">
-  <autoFilter ref="A7:D168"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="TableData_0_0" displayName="TableData_0_0" ref="A7:D174" headerRowCount="1">
+  <autoFilter ref="A7:D174"/>
   <tableColumns count="4">
     <tableColumn id="1" name="Date de cotation"/>
     <tableColumn id="2" name="Dernier cours en EUR"/>
@@ -810,7 +828,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:F169"/>
+  <dimension ref="A1:F175"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" zoomScale="80"/>
   </sheetViews>
@@ -927,13 +945,13 @@
         <v>13</v>
       </c>
       <c r="B8" s="14">
-        <v>129.5692</v>
+        <v>131.396</v>
       </c>
       <c r="C8" s="15">
-        <v>-0.63</v>
+        <v>0.69</v>
       </c>
       <c r="D8" s="16">
-        <v>2617004</v>
+        <v>2764238</v>
       </c>
       <c r="E8" s="12"/>
       <c r="F8" s="12"/>
@@ -943,13 +961,13 @@
         <v>14</v>
       </c>
       <c r="B9" s="14">
-        <v>130.3918</v>
+        <v>130.5011</v>
       </c>
       <c r="C9" s="15">
-        <v>0.17</v>
+        <v>0.03</v>
       </c>
       <c r="D9" s="16">
-        <v>2598813</v>
+        <v>2763444</v>
       </c>
       <c r="E9" s="12"/>
       <c r="F9" s="12"/>
@@ -959,13 +977,13 @@
         <v>15</v>
       </c>
       <c r="B10" s="14">
-        <v>130.172</v>
+        <v>130.4589</v>
       </c>
       <c r="C10" s="15">
-        <v>1.82</v>
+        <v>0.46</v>
       </c>
       <c r="D10" s="16">
-        <v>2595406</v>
+        <v>2760713</v>
       </c>
       <c r="E10" s="12"/>
       <c r="F10" s="12"/>
@@ -975,13 +993,13 @@
         <v>16</v>
       </c>
       <c r="B11" s="14">
-        <v>127.852</v>
+        <v>129.8615</v>
       </c>
       <c r="C11" s="15">
-        <v>0.28</v>
+        <v>0.32</v>
       </c>
       <c r="D11" s="16">
-        <v>2584035</v>
+        <v>2757384</v>
       </c>
       <c r="E11" s="12"/>
       <c r="F11" s="12"/>
@@ -991,13 +1009,13 @@
         <v>17</v>
       </c>
       <c r="B12" s="14">
-        <v>127.4934</v>
+        <v>129.4431</v>
       </c>
       <c r="C12" s="15">
-        <v>0.06</v>
+        <v>1.17</v>
       </c>
       <c r="D12" s="16">
-        <v>2532798</v>
+        <v>2699976</v>
       </c>
       <c r="E12" s="12"/>
       <c r="F12" s="12"/>
@@ -1007,13 +1025,13 @@
         <v>18</v>
       </c>
       <c r="B13" s="14">
-        <v>127.421</v>
+        <v>127.9409</v>
       </c>
       <c r="C13" s="15">
-        <v>-0.34</v>
+        <v>-1.26</v>
       </c>
       <c r="D13" s="16">
-        <v>2537800</v>
+        <v>2648361</v>
       </c>
       <c r="E13" s="12"/>
       <c r="F13" s="12"/>
@@ -1023,13 +1041,13 @@
         <v>19</v>
       </c>
       <c r="B14" s="14">
-        <v>127.861</v>
+        <v>129.5692</v>
       </c>
       <c r="C14" s="15">
-        <v>0.56</v>
+        <v>-0.63</v>
       </c>
       <c r="D14" s="16">
-        <v>2536370</v>
+        <v>2617004</v>
       </c>
       <c r="E14" s="12"/>
       <c r="F14" s="12"/>
@@ -1039,13 +1057,13 @@
         <v>20</v>
       </c>
       <c r="B15" s="14">
-        <v>127.1491</v>
+        <v>130.3918</v>
       </c>
       <c r="C15" s="15">
-        <v>0.61</v>
+        <v>0.17</v>
       </c>
       <c r="D15" s="16">
-        <v>2536400</v>
+        <v>2598813</v>
       </c>
       <c r="E15" s="12"/>
       <c r="F15" s="12"/>
@@ -1055,13 +1073,13 @@
         <v>21</v>
       </c>
       <c r="B16" s="14">
-        <v>126.3847</v>
+        <v>130.172</v>
       </c>
       <c r="C16" s="15">
-        <v>0.11</v>
+        <v>1.82</v>
       </c>
       <c r="D16" s="16">
-        <v>2544098</v>
+        <v>2595406</v>
       </c>
       <c r="E16" s="12"/>
       <c r="F16" s="12"/>
@@ -1071,13 +1089,13 @@
         <v>22</v>
       </c>
       <c r="B17" s="14">
-        <v>126.2419</v>
+        <v>127.852</v>
       </c>
       <c r="C17" s="15">
-        <v>-0.24</v>
+        <v>0.28</v>
       </c>
       <c r="D17" s="16">
-        <v>2535510</v>
+        <v>2584035</v>
       </c>
       <c r="E17" s="12"/>
       <c r="F17" s="12"/>
@@ -1087,13 +1105,13 @@
         <v>23</v>
       </c>
       <c r="B18" s="14">
-        <v>126.5397</v>
+        <v>127.4934</v>
       </c>
       <c r="C18" s="15">
-        <v>0.96</v>
+        <v>0.06</v>
       </c>
       <c r="D18" s="16">
-        <v>2458959</v>
+        <v>2532798</v>
       </c>
       <c r="E18" s="12"/>
       <c r="F18" s="12"/>
@@ -1103,13 +1121,13 @@
         <v>24</v>
       </c>
       <c r="B19" s="14">
-        <v>125.3313</v>
+        <v>127.421</v>
       </c>
       <c r="C19" s="15">
-        <v>-0.63</v>
+        <v>-0.34</v>
       </c>
       <c r="D19" s="16">
-        <v>2394997</v>
+        <v>2537800</v>
       </c>
       <c r="E19" s="12"/>
       <c r="F19" s="12"/>
@@ -1119,13 +1137,13 @@
         <v>25</v>
       </c>
       <c r="B20" s="14">
-        <v>126.1289</v>
+        <v>127.861</v>
       </c>
       <c r="C20" s="15">
-        <v>1.56</v>
+        <v>0.56</v>
       </c>
       <c r="D20" s="16">
-        <v>2343349</v>
+        <v>2536370</v>
       </c>
       <c r="E20" s="12"/>
       <c r="F20" s="12"/>
@@ -1135,13 +1153,13 @@
         <v>26</v>
       </c>
       <c r="B21" s="14">
-        <v>124.1917</v>
+        <v>127.1491</v>
       </c>
       <c r="C21" s="15">
-        <v>1.52</v>
+        <v>0.61</v>
       </c>
       <c r="D21" s="16">
-        <v>2315769</v>
+        <v>2536400</v>
       </c>
       <c r="E21" s="12"/>
       <c r="F21" s="12"/>
@@ -1151,13 +1169,13 @@
         <v>27</v>
       </c>
       <c r="B22" s="14">
-        <v>122.3378</v>
+        <v>126.3847</v>
       </c>
       <c r="C22" s="15">
-        <v>0.95</v>
+        <v>0.11</v>
       </c>
       <c r="D22" s="16">
-        <v>2317617</v>
+        <v>2544098</v>
       </c>
       <c r="E22" s="12"/>
       <c r="F22" s="12"/>
@@ -1167,13 +1185,13 @@
         <v>28</v>
       </c>
       <c r="B23" s="14">
-        <v>121.1861</v>
+        <v>126.2419</v>
       </c>
       <c r="C23" s="15">
-        <v>1.11</v>
+        <v>-0.24</v>
       </c>
       <c r="D23" s="16">
-        <v>2296591</v>
+        <v>2535510</v>
       </c>
       <c r="E23" s="12"/>
       <c r="F23" s="12"/>
@@ -1183,13 +1201,13 @@
         <v>29</v>
       </c>
       <c r="B24" s="14">
-        <v>119.8562</v>
+        <v>126.5397</v>
       </c>
       <c r="C24" s="15">
-        <v>1.63</v>
+        <v>0.96</v>
       </c>
       <c r="D24" s="16">
-        <v>2254686</v>
+        <v>2458959</v>
       </c>
       <c r="E24" s="12"/>
       <c r="F24" s="12"/>
@@ -1199,13 +1217,13 @@
         <v>30</v>
       </c>
       <c r="B25" s="14">
-        <v>117.9363</v>
+        <v>125.3313</v>
       </c>
       <c r="C25" s="15">
-        <v>-0.59</v>
+        <v>-0.63</v>
       </c>
       <c r="D25" s="16">
-        <v>2260879</v>
+        <v>2394997</v>
       </c>
       <c r="E25" s="12"/>
       <c r="F25" s="12"/>
@@ -1215,13 +1233,13 @@
         <v>31</v>
       </c>
       <c r="B26" s="14">
-        <v>118.6328</v>
+        <v>126.1289</v>
       </c>
       <c r="C26" s="15">
-        <v>-0.05</v>
+        <v>1.56</v>
       </c>
       <c r="D26" s="16">
-        <v>2263807</v>
+        <v>2343349</v>
       </c>
       <c r="E26" s="12"/>
       <c r="F26" s="12"/>
@@ -1231,13 +1249,13 @@
         <v>32</v>
       </c>
       <c r="B27" s="14">
-        <v>118.6874</v>
+        <v>124.1917</v>
       </c>
       <c r="C27" s="15">
-        <v>-0.46</v>
+        <v>1.52</v>
       </c>
       <c r="D27" s="16">
-        <v>2281551</v>
+        <v>2315769</v>
       </c>
       <c r="E27" s="12"/>
       <c r="F27" s="12"/>
@@ -1247,13 +1265,13 @@
         <v>33</v>
       </c>
       <c r="B28" s="14">
-        <v>119.2347</v>
+        <v>122.3378</v>
       </c>
       <c r="C28" s="15">
-        <v>0.5</v>
+        <v>0.95</v>
       </c>
       <c r="D28" s="16">
-        <v>2279706</v>
+        <v>2317617</v>
       </c>
       <c r="E28" s="12"/>
       <c r="F28" s="12"/>
@@ -1263,13 +1281,13 @@
         <v>34</v>
       </c>
       <c r="B29" s="14">
-        <v>118.6386</v>
+        <v>121.1861</v>
       </c>
       <c r="C29" s="15">
-        <v>0.61</v>
+        <v>1.11</v>
       </c>
       <c r="D29" s="16">
-        <v>2279152</v>
+        <v>2296591</v>
       </c>
       <c r="E29" s="12"/>
       <c r="F29" s="12"/>
@@ -1279,13 +1297,13 @@
         <v>35</v>
       </c>
       <c r="B30" s="14">
-        <v>117.9168</v>
+        <v>119.8562</v>
       </c>
       <c r="C30" s="15">
-        <v>0.34</v>
+        <v>1.63</v>
       </c>
       <c r="D30" s="16">
-        <v>2202674</v>
+        <v>2254686</v>
       </c>
       <c r="E30" s="12"/>
       <c r="F30" s="12"/>
@@ -1295,13 +1313,13 @@
         <v>36</v>
       </c>
       <c r="B31" s="14">
-        <v>117.5128</v>
+        <v>117.9363</v>
       </c>
       <c r="C31" s="15">
-        <v>0.47</v>
+        <v>-0.59</v>
       </c>
       <c r="D31" s="16">
-        <v>2185588</v>
+        <v>2260879</v>
       </c>
       <c r="E31" s="12"/>
       <c r="F31" s="12"/>
@@ -1311,13 +1329,13 @@
         <v>37</v>
       </c>
       <c r="B32" s="14">
-        <v>116.9648</v>
+        <v>118.6328</v>
       </c>
       <c r="C32" s="15">
-        <v>0.33</v>
+        <v>-0.05</v>
       </c>
       <c r="D32" s="16">
-        <v>2164859</v>
+        <v>2263807</v>
       </c>
       <c r="E32" s="12"/>
       <c r="F32" s="12"/>
@@ -1327,13 +1345,13 @@
         <v>38</v>
       </c>
       <c r="B33" s="14">
-        <v>116.5833</v>
+        <v>118.6874</v>
       </c>
       <c r="C33" s="15">
-        <v>0.13</v>
+        <v>-0.46</v>
       </c>
       <c r="D33" s="16">
-        <v>2160881</v>
+        <v>2281551</v>
       </c>
       <c r="E33" s="12"/>
       <c r="F33" s="12"/>
@@ -1343,13 +1361,13 @@
         <v>39</v>
       </c>
       <c r="B34" s="14">
-        <v>116.4283</v>
+        <v>119.2347</v>
       </c>
       <c r="C34" s="15">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="D34" s="16">
-        <v>2169510</v>
+        <v>2279706</v>
       </c>
       <c r="E34" s="12"/>
       <c r="F34" s="12"/>
@@ -1359,13 +1377,13 @@
         <v>40</v>
       </c>
       <c r="B35" s="14">
-        <v>115.5636</v>
+        <v>118.6386</v>
       </c>
       <c r="C35" s="15">
-        <v>-0.25</v>
+        <v>0.61</v>
       </c>
       <c r="D35" s="16">
-        <v>2163030</v>
+        <v>2279152</v>
       </c>
       <c r="E35" s="12"/>
       <c r="F35" s="12"/>
@@ -1375,13 +1393,13 @@
         <v>41</v>
       </c>
       <c r="B36" s="14">
-        <v>115.8578</v>
+        <v>117.9168</v>
       </c>
       <c r="C36" s="15">
-        <v>0.46</v>
+        <v>0.34</v>
       </c>
       <c r="D36" s="16">
-        <v>2131120</v>
+        <v>2202674</v>
       </c>
       <c r="E36" s="12"/>
       <c r="F36" s="12"/>
@@ -1391,13 +1409,13 @@
         <v>42</v>
       </c>
       <c r="B37" s="14">
-        <v>115.3335</v>
+        <v>117.5128</v>
       </c>
       <c r="C37" s="15">
-        <v>0.4</v>
+        <v>0.47</v>
       </c>
       <c r="D37" s="16">
-        <v>2141121</v>
+        <v>2185588</v>
       </c>
       <c r="E37" s="12"/>
       <c r="F37" s="12"/>
@@ -1407,13 +1425,13 @@
         <v>43</v>
       </c>
       <c r="B38" s="14">
-        <v>114.8751</v>
+        <v>116.9648</v>
       </c>
       <c r="C38" s="15">
-        <v>-0.72</v>
+        <v>0.33</v>
       </c>
       <c r="D38" s="16">
-        <v>2165972</v>
+        <v>2164859</v>
       </c>
       <c r="E38" s="12"/>
       <c r="F38" s="12"/>
@@ -1423,13 +1441,13 @@
         <v>44</v>
       </c>
       <c r="B39" s="14">
-        <v>115.7123</v>
+        <v>116.5833</v>
       </c>
       <c r="C39" s="15">
-        <v>-0.25</v>
+        <v>0.13</v>
       </c>
       <c r="D39" s="16">
-        <v>2167476</v>
+        <v>2160881</v>
       </c>
       <c r="E39" s="12"/>
       <c r="F39" s="12"/>
@@ -1439,13 +1457,13 @@
         <v>45</v>
       </c>
       <c r="B40" s="14">
-        <v>116.0035</v>
+        <v>116.4283</v>
       </c>
       <c r="C40" s="15">
-        <v>0.34</v>
+        <v>0.75</v>
       </c>
       <c r="D40" s="16">
-        <v>2169524</v>
+        <v>2169510</v>
       </c>
       <c r="E40" s="12"/>
       <c r="F40" s="12"/>
@@ -1455,13 +1473,13 @@
         <v>46</v>
       </c>
       <c r="B41" s="14">
-        <v>115.6116</v>
+        <v>115.5636</v>
       </c>
       <c r="C41" s="15">
-        <v>-0.76</v>
+        <v>-0.25</v>
       </c>
       <c r="D41" s="16">
-        <v>2160109</v>
+        <v>2163030</v>
       </c>
       <c r="E41" s="12"/>
       <c r="F41" s="12"/>
@@ -1471,13 +1489,13 @@
         <v>47</v>
       </c>
       <c r="B42" s="14">
-        <v>116.4985</v>
+        <v>115.8578</v>
       </c>
       <c r="C42" s="15">
-        <v>-0.16</v>
+        <v>0.46</v>
       </c>
       <c r="D42" s="16">
-        <v>2089914</v>
+        <v>2131120</v>
       </c>
       <c r="E42" s="12"/>
       <c r="F42" s="12"/>
@@ -1487,13 +1505,13 @@
         <v>48</v>
       </c>
       <c r="B43" s="14">
-        <v>116.6895</v>
+        <v>115.3335</v>
       </c>
       <c r="C43" s="15">
-        <v>-0.4</v>
+        <v>0.4</v>
       </c>
       <c r="D43" s="16">
-        <v>2054650</v>
+        <v>2141121</v>
       </c>
       <c r="E43" s="12"/>
       <c r="F43" s="12"/>
@@ -1503,13 +1521,13 @@
         <v>49</v>
       </c>
       <c r="B44" s="14">
-        <v>117.1621</v>
+        <v>114.8751</v>
       </c>
       <c r="C44" s="15">
-        <v>-0.33</v>
+        <v>-0.72</v>
       </c>
       <c r="D44" s="16">
-        <v>2020854</v>
+        <v>2165972</v>
       </c>
       <c r="E44" s="12"/>
       <c r="F44" s="12"/>
@@ -1519,13 +1537,13 @@
         <v>50</v>
       </c>
       <c r="B45" s="14">
-        <v>117.5474</v>
+        <v>115.7123</v>
       </c>
       <c r="C45" s="15">
-        <v>-0.46</v>
+        <v>-0.25</v>
       </c>
       <c r="D45" s="16">
-        <v>2006960</v>
+        <v>2167476</v>
       </c>
       <c r="E45" s="12"/>
       <c r="F45" s="12"/>
@@ -1535,13 +1553,13 @@
         <v>51</v>
       </c>
       <c r="B46" s="14">
-        <v>118.0891</v>
+        <v>116.0035</v>
       </c>
       <c r="C46" s="15">
-        <v>-1.37</v>
+        <v>0.34</v>
       </c>
       <c r="D46" s="16">
-        <v>2000292</v>
+        <v>2169524</v>
       </c>
       <c r="E46" s="12"/>
       <c r="F46" s="12"/>
@@ -1551,13 +1569,13 @@
         <v>52</v>
       </c>
       <c r="B47" s="14">
-        <v>119.7273</v>
+        <v>115.6116</v>
       </c>
       <c r="C47" s="15">
-        <v>0.67</v>
+        <v>-0.76</v>
       </c>
       <c r="D47" s="16">
-        <v>1971192</v>
+        <v>2160109</v>
       </c>
       <c r="E47" s="12"/>
       <c r="F47" s="12"/>
@@ -1567,13 +1585,13 @@
         <v>53</v>
       </c>
       <c r="B48" s="14">
-        <v>118.9325</v>
+        <v>116.4985</v>
       </c>
       <c r="C48" s="15">
-        <v>-0.5</v>
+        <v>-0.16</v>
       </c>
       <c r="D48" s="16">
-        <v>1893731</v>
+        <v>2089914</v>
       </c>
       <c r="E48" s="12"/>
       <c r="F48" s="12"/>
@@ -1583,13 +1601,13 @@
         <v>54</v>
       </c>
       <c r="B49" s="14">
-        <v>119.5293</v>
+        <v>116.6895</v>
       </c>
       <c r="C49" s="15">
-        <v>0.08</v>
+        <v>-0.4</v>
       </c>
       <c r="D49" s="16">
-        <v>1888886</v>
+        <v>2054650</v>
       </c>
       <c r="E49" s="12"/>
       <c r="F49" s="12"/>
@@ -1599,13 +1617,13 @@
         <v>55</v>
       </c>
       <c r="B50" s="14">
-        <v>119.4377</v>
+        <v>117.1621</v>
       </c>
       <c r="C50" s="15">
-        <v>-0.04</v>
+        <v>-0.33</v>
       </c>
       <c r="D50" s="16">
-        <v>1875764</v>
+        <v>2020854</v>
       </c>
       <c r="E50" s="12"/>
       <c r="F50" s="12"/>
@@ -1615,13 +1633,13 @@
         <v>56</v>
       </c>
       <c r="B51" s="14">
-        <v>119.4795</v>
+        <v>117.5474</v>
       </c>
       <c r="C51" s="15">
-        <v>0.45</v>
+        <v>-0.46</v>
       </c>
       <c r="D51" s="16">
-        <v>1882089</v>
+        <v>2006960</v>
       </c>
       <c r="E51" s="12"/>
       <c r="F51" s="12"/>
@@ -1631,13 +1649,13 @@
         <v>57</v>
       </c>
       <c r="B52" s="14">
-        <v>118.9417</v>
+        <v>118.0891</v>
       </c>
       <c r="C52" s="15">
-        <v>0</v>
+        <v>-1.37</v>
       </c>
       <c r="D52" s="16">
-        <v>1874070</v>
+        <v>2000292</v>
       </c>
       <c r="E52" s="12"/>
       <c r="F52" s="12"/>
@@ -1647,13 +1665,13 @@
         <v>58</v>
       </c>
       <c r="B53" s="14">
-        <v>118.9381</v>
+        <v>119.7273</v>
       </c>
       <c r="C53" s="15">
-        <v>0.36</v>
+        <v>0.67</v>
       </c>
       <c r="D53" s="16">
-        <v>1854936</v>
+        <v>1971192</v>
       </c>
       <c r="E53" s="12"/>
       <c r="F53" s="12"/>
@@ -1663,13 +1681,13 @@
         <v>59</v>
       </c>
       <c r="B54" s="14">
-        <v>118.5078</v>
+        <v>118.9325</v>
       </c>
       <c r="C54" s="15">
-        <v>0.35</v>
+        <v>-0.5</v>
       </c>
       <c r="D54" s="16">
-        <v>1793350</v>
+        <v>1893731</v>
       </c>
       <c r="E54" s="12"/>
       <c r="F54" s="12"/>
@@ -1679,13 +1697,13 @@
         <v>60</v>
       </c>
       <c r="B55" s="14">
-        <v>118.0985</v>
+        <v>119.5293</v>
       </c>
       <c r="C55" s="15">
-        <v>0.49</v>
+        <v>0.08</v>
       </c>
       <c r="D55" s="16">
-        <v>1758312</v>
+        <v>1888886</v>
       </c>
       <c r="E55" s="12"/>
       <c r="F55" s="12"/>
@@ -1695,13 +1713,13 @@
         <v>61</v>
       </c>
       <c r="B56" s="14">
-        <v>117.5179</v>
+        <v>119.4377</v>
       </c>
       <c r="C56" s="15">
-        <v>0.56</v>
+        <v>-0.04</v>
       </c>
       <c r="D56" s="16">
-        <v>1738365</v>
+        <v>1875764</v>
       </c>
       <c r="E56" s="12"/>
       <c r="F56" s="12"/>
@@ -1711,13 +1729,13 @@
         <v>62</v>
       </c>
       <c r="B57" s="14">
-        <v>116.8645</v>
+        <v>119.4795</v>
       </c>
       <c r="C57" s="15">
-        <v>0.32</v>
+        <v>0.45</v>
       </c>
       <c r="D57" s="16">
-        <v>1738745</v>
+        <v>1882089</v>
       </c>
       <c r="E57" s="12"/>
       <c r="F57" s="12"/>
@@ -1727,13 +1745,13 @@
         <v>63</v>
       </c>
       <c r="B58" s="14">
-        <v>116.4929</v>
+        <v>118.9417</v>
       </c>
       <c r="C58" s="15">
-        <v>-0.2</v>
+        <v>0</v>
       </c>
       <c r="D58" s="16">
-        <v>1751626</v>
+        <v>1874070</v>
       </c>
       <c r="E58" s="12"/>
       <c r="F58" s="12"/>
@@ -1743,13 +1761,13 @@
         <v>64</v>
       </c>
       <c r="B59" s="14">
-        <v>116.7245</v>
+        <v>118.9381</v>
       </c>
       <c r="C59" s="15">
-        <v>0.15</v>
+        <v>0.36</v>
       </c>
       <c r="D59" s="16">
-        <v>1751432</v>
+        <v>1854936</v>
       </c>
       <c r="E59" s="12"/>
       <c r="F59" s="12"/>
@@ -1759,13 +1777,13 @@
         <v>65</v>
       </c>
       <c r="B60" s="14">
-        <v>116.5503</v>
+        <v>118.5078</v>
       </c>
       <c r="C60" s="15">
-        <v>1.05</v>
+        <v>0.35</v>
       </c>
       <c r="D60" s="16">
-        <v>1698369</v>
+        <v>1793350</v>
       </c>
       <c r="E60" s="12"/>
       <c r="F60" s="12"/>
@@ -1775,13 +1793,13 @@
         <v>66</v>
       </c>
       <c r="B61" s="14">
-        <v>115.3388</v>
+        <v>118.0985</v>
       </c>
       <c r="C61" s="15">
-        <v>-0.29</v>
+        <v>0.49</v>
       </c>
       <c r="D61" s="16">
-        <v>1699227</v>
+        <v>1758312</v>
       </c>
       <c r="E61" s="12"/>
       <c r="F61" s="12"/>
@@ -1791,13 +1809,13 @@
         <v>67</v>
       </c>
       <c r="B62" s="14">
-        <v>115.6787</v>
+        <v>117.5179</v>
       </c>
       <c r="C62" s="15">
-        <v>-0.39</v>
+        <v>0.56</v>
       </c>
       <c r="D62" s="16">
-        <v>1700256</v>
+        <v>1738365</v>
       </c>
       <c r="E62" s="12"/>
       <c r="F62" s="12"/>
@@ -1807,13 +1825,13 @@
         <v>68</v>
       </c>
       <c r="B63" s="14">
-        <v>116.1297</v>
+        <v>116.8645</v>
       </c>
       <c r="C63" s="15">
-        <v>0.36</v>
+        <v>0.32</v>
       </c>
       <c r="D63" s="16">
-        <v>1699127</v>
+        <v>1738745</v>
       </c>
       <c r="E63" s="12"/>
       <c r="F63" s="12"/>
@@ -1823,13 +1841,13 @@
         <v>69</v>
       </c>
       <c r="B64" s="14">
-        <v>115.7146</v>
+        <v>116.4929</v>
       </c>
       <c r="C64" s="15">
-        <v>-0.02</v>
+        <v>-0.2</v>
       </c>
       <c r="D64" s="16">
-        <v>1686740</v>
+        <v>1751626</v>
       </c>
       <c r="E64" s="12"/>
       <c r="F64" s="12"/>
@@ -1839,13 +1857,13 @@
         <v>70</v>
       </c>
       <c r="B65" s="14">
-        <v>115.733</v>
+        <v>116.7245</v>
       </c>
       <c r="C65" s="15">
-        <v>-0.01</v>
+        <v>0.15</v>
       </c>
       <c r="D65" s="16">
-        <v>1672215</v>
+        <v>1751432</v>
       </c>
       <c r="E65" s="12"/>
       <c r="F65" s="12"/>
@@ -1855,13 +1873,13 @@
         <v>71</v>
       </c>
       <c r="B66" s="14">
-        <v>115.7457</v>
+        <v>116.5503</v>
       </c>
       <c r="C66" s="15">
-        <v>0.25</v>
+        <v>1.05</v>
       </c>
       <c r="D66" s="16">
-        <v>1631411</v>
+        <v>1698369</v>
       </c>
       <c r="E66" s="12"/>
       <c r="F66" s="12"/>
@@ -1871,13 +1889,13 @@
         <v>72</v>
       </c>
       <c r="B67" s="14">
-        <v>115.4605</v>
+        <v>115.3388</v>
       </c>
       <c r="C67" s="15">
-        <v>0.12</v>
+        <v>-0.29</v>
       </c>
       <c r="D67" s="16">
-        <v>1612786</v>
+        <v>1699227</v>
       </c>
       <c r="E67" s="12"/>
       <c r="F67" s="12"/>
@@ -1887,13 +1905,13 @@
         <v>73</v>
       </c>
       <c r="B68" s="14">
-        <v>115.3239</v>
+        <v>115.6787</v>
       </c>
       <c r="C68" s="15">
-        <v>-2.9</v>
+        <v>-0.39</v>
       </c>
       <c r="D68" s="16">
-        <v>1600185</v>
+        <v>1700256</v>
       </c>
       <c r="E68" s="12"/>
       <c r="F68" s="12"/>
@@ -1903,13 +1921,13 @@
         <v>74</v>
       </c>
       <c r="B69" s="14">
-        <v>118.7719</v>
+        <v>116.1297</v>
       </c>
       <c r="C69" s="15">
-        <v>-1.63</v>
+        <v>0.36</v>
       </c>
       <c r="D69" s="16">
-        <v>1591763</v>
+        <v>1699127</v>
       </c>
       <c r="E69" s="12"/>
       <c r="F69" s="12"/>
@@ -1919,13 +1937,13 @@
         <v>75</v>
       </c>
       <c r="B70" s="14">
-        <v>120.7441</v>
+        <v>115.7146</v>
       </c>
       <c r="C70" s="15">
-        <v>-0.66</v>
+        <v>-0.02</v>
       </c>
       <c r="D70" s="16">
-        <v>1567275</v>
+        <v>1686740</v>
       </c>
       <c r="E70" s="12"/>
       <c r="F70" s="12"/>
@@ -1935,13 +1953,13 @@
         <v>76</v>
       </c>
       <c r="B71" s="14">
-        <v>121.5505</v>
+        <v>115.733</v>
       </c>
       <c r="C71" s="15">
-        <v>0.6</v>
+        <v>-0.01</v>
       </c>
       <c r="D71" s="16">
-        <v>1521574</v>
+        <v>1672215</v>
       </c>
       <c r="E71" s="12"/>
       <c r="F71" s="12"/>
@@ -1951,13 +1969,13 @@
         <v>77</v>
       </c>
       <c r="B72" s="14">
-        <v>120.829</v>
+        <v>115.7457</v>
       </c>
       <c r="C72" s="15">
-        <v>0.63</v>
+        <v>0.25</v>
       </c>
       <c r="D72" s="16">
-        <v>1453341</v>
+        <v>1631411</v>
       </c>
       <c r="E72" s="12"/>
       <c r="F72" s="12"/>
@@ -1967,13 +1985,13 @@
         <v>78</v>
       </c>
       <c r="B73" s="14">
-        <v>120.0786</v>
+        <v>115.4605</v>
       </c>
       <c r="C73" s="15">
-        <v>0.31</v>
+        <v>0.12</v>
       </c>
       <c r="D73" s="16">
-        <v>1434243</v>
+        <v>1612786</v>
       </c>
       <c r="E73" s="12"/>
       <c r="F73" s="12"/>
@@ -1983,13 +2001,13 @@
         <v>79</v>
       </c>
       <c r="B74" s="14">
-        <v>119.7137</v>
+        <v>115.3239</v>
       </c>
       <c r="C74" s="15">
-        <v>0.48</v>
+        <v>-2.9</v>
       </c>
       <c r="D74" s="16">
-        <v>1421467</v>
+        <v>1600185</v>
       </c>
       <c r="E74" s="12"/>
       <c r="F74" s="12"/>
@@ -1999,13 +2017,13 @@
         <v>80</v>
       </c>
       <c r="B75" s="14">
-        <v>119.1477</v>
+        <v>118.7719</v>
       </c>
       <c r="C75" s="15">
-        <v>-0.8</v>
+        <v>-1.63</v>
       </c>
       <c r="D75" s="16">
-        <v>1417271</v>
+        <v>1591763</v>
       </c>
       <c r="E75" s="12"/>
       <c r="F75" s="12"/>
@@ -2015,13 +2033,13 @@
         <v>81</v>
       </c>
       <c r="B76" s="14">
-        <v>120.1108</v>
+        <v>120.7441</v>
       </c>
       <c r="C76" s="15">
-        <v>0.45</v>
+        <v>-0.66</v>
       </c>
       <c r="D76" s="16">
-        <v>1413776</v>
+        <v>1567275</v>
       </c>
       <c r="E76" s="12"/>
       <c r="F76" s="12"/>
@@ -2031,13 +2049,13 @@
         <v>82</v>
       </c>
       <c r="B77" s="14">
-        <v>119.5736</v>
+        <v>121.5505</v>
       </c>
       <c r="C77" s="15">
-        <v>1.16</v>
+        <v>0.6</v>
       </c>
       <c r="D77" s="16">
-        <v>1394330</v>
+        <v>1521574</v>
       </c>
       <c r="E77" s="12"/>
       <c r="F77" s="12"/>
@@ -2047,13 +2065,13 @@
         <v>83</v>
       </c>
       <c r="B78" s="14">
-        <v>118.2007</v>
+        <v>120.829</v>
       </c>
       <c r="C78" s="15">
-        <v>-1.28</v>
+        <v>0.63</v>
       </c>
       <c r="D78" s="16">
-        <v>1320181</v>
+        <v>1453341</v>
       </c>
       <c r="E78" s="12"/>
       <c r="F78" s="12"/>
@@ -2063,13 +2081,13 @@
         <v>84</v>
       </c>
       <c r="B79" s="14">
-        <v>119.7344</v>
+        <v>120.0786</v>
       </c>
       <c r="C79" s="15">
-        <v>0.94</v>
+        <v>0.31</v>
       </c>
       <c r="D79" s="16">
-        <v>1251436</v>
+        <v>1434243</v>
       </c>
       <c r="E79" s="12"/>
       <c r="F79" s="12"/>
@@ -2079,13 +2097,13 @@
         <v>85</v>
       </c>
       <c r="B80" s="14">
-        <v>118.6189</v>
+        <v>119.7137</v>
       </c>
       <c r="C80" s="15">
-        <v>0.32</v>
+        <v>0.48</v>
       </c>
       <c r="D80" s="16">
-        <v>1198178</v>
+        <v>1421467</v>
       </c>
       <c r="E80" s="12"/>
       <c r="F80" s="12"/>
@@ -2095,13 +2113,13 @@
         <v>86</v>
       </c>
       <c r="B81" s="14">
-        <v>118.2371</v>
+        <v>119.1477</v>
       </c>
       <c r="C81" s="15">
-        <v>0.6</v>
+        <v>-0.8</v>
       </c>
       <c r="D81" s="16">
-        <v>1176051</v>
+        <v>1417271</v>
       </c>
       <c r="E81" s="12"/>
       <c r="F81" s="12"/>
@@ -2111,13 +2129,13 @@
         <v>87</v>
       </c>
       <c r="B82" s="14">
-        <v>117.5348</v>
+        <v>120.1108</v>
       </c>
       <c r="C82" s="15">
-        <v>0.81</v>
+        <v>0.45</v>
       </c>
       <c r="D82" s="16">
-        <v>1166186</v>
+        <v>1413776</v>
       </c>
       <c r="E82" s="12"/>
       <c r="F82" s="12"/>
@@ -2127,13 +2145,13 @@
         <v>88</v>
       </c>
       <c r="B83" s="14">
-        <v>116.5876</v>
+        <v>119.5736</v>
       </c>
       <c r="C83" s="15">
-        <v>-1.38</v>
+        <v>1.16</v>
       </c>
       <c r="D83" s="16">
-        <v>1138715</v>
+        <v>1394330</v>
       </c>
       <c r="E83" s="12"/>
       <c r="F83" s="12"/>
@@ -2143,13 +2161,13 @@
         <v>89</v>
       </c>
       <c r="B84" s="14">
-        <v>118.2224</v>
+        <v>118.2007</v>
       </c>
       <c r="C84" s="15">
-        <v>0.36</v>
+        <v>-1.28</v>
       </c>
       <c r="D84" s="16">
-        <v>1077702</v>
+        <v>1320181</v>
       </c>
       <c r="E84" s="12"/>
       <c r="F84" s="12"/>
@@ -2159,13 +2177,13 @@
         <v>90</v>
       </c>
       <c r="B85" s="14">
-        <v>117.8047</v>
+        <v>119.7344</v>
       </c>
       <c r="C85" s="15">
-        <v>-2.27</v>
+        <v>0.94</v>
       </c>
       <c r="D85" s="16">
-        <v>1057991</v>
+        <v>1251436</v>
       </c>
       <c r="E85" s="12"/>
       <c r="F85" s="12"/>
@@ -2175,13 +2193,13 @@
         <v>91</v>
       </c>
       <c r="B86" s="14">
-        <v>120.5372</v>
+        <v>118.6189</v>
       </c>
       <c r="C86" s="15">
-        <v>0.11</v>
+        <v>0.32</v>
       </c>
       <c r="D86" s="16">
-        <v>1037402</v>
+        <v>1198178</v>
       </c>
       <c r="E86" s="12"/>
       <c r="F86" s="12"/>
@@ -2191,13 +2209,13 @@
         <v>92</v>
       </c>
       <c r="B87" s="14">
-        <v>120.4034</v>
+        <v>118.2371</v>
       </c>
       <c r="C87" s="15">
-        <v>-0.29</v>
+        <v>0.6</v>
       </c>
       <c r="D87" s="16">
-        <v>1024926</v>
+        <v>1176051</v>
       </c>
       <c r="E87" s="12"/>
       <c r="F87" s="12"/>
@@ -2207,13 +2225,13 @@
         <v>93</v>
       </c>
       <c r="B88" s="14">
-        <v>120.7502</v>
+        <v>117.5348</v>
       </c>
       <c r="C88" s="15">
-        <v>0.73</v>
+        <v>0.81</v>
       </c>
       <c r="D88" s="16">
-        <v>1004562</v>
+        <v>1166186</v>
       </c>
       <c r="E88" s="12"/>
       <c r="F88" s="12"/>
@@ -2223,13 +2241,13 @@
         <v>94</v>
       </c>
       <c r="B89" s="14">
-        <v>119.8728</v>
+        <v>116.5876</v>
       </c>
       <c r="C89" s="15">
-        <v>-0.6</v>
+        <v>-1.38</v>
       </c>
       <c r="D89" s="16">
-        <v>970004</v>
+        <v>1138715</v>
       </c>
       <c r="E89" s="12"/>
       <c r="F89" s="12"/>
@@ -2239,13 +2257,13 @@
         <v>95</v>
       </c>
       <c r="B90" s="14">
-        <v>120.6004</v>
+        <v>118.2224</v>
       </c>
       <c r="C90" s="15">
-        <v>0.35</v>
+        <v>0.36</v>
       </c>
       <c r="D90" s="16">
-        <v>855569</v>
+        <v>1077702</v>
       </c>
       <c r="E90" s="12"/>
       <c r="F90" s="12"/>
@@ -2255,13 +2273,13 @@
         <v>96</v>
       </c>
       <c r="B91" s="14">
-        <v>120.1746</v>
+        <v>117.8047</v>
       </c>
       <c r="C91" s="15">
-        <v>0.88</v>
+        <v>-2.27</v>
       </c>
       <c r="D91" s="16">
-        <v>812604</v>
+        <v>1057991</v>
       </c>
       <c r="E91" s="12"/>
       <c r="F91" s="12"/>
@@ -2271,13 +2289,13 @@
         <v>97</v>
       </c>
       <c r="B92" s="14">
-        <v>119.1224</v>
+        <v>120.5372</v>
       </c>
       <c r="C92" s="15">
-        <v>-0.61</v>
+        <v>0.11</v>
       </c>
       <c r="D92" s="16">
-        <v>779869</v>
+        <v>1037402</v>
       </c>
       <c r="E92" s="12"/>
       <c r="F92" s="12"/>
@@ -2287,13 +2305,13 @@
         <v>98</v>
       </c>
       <c r="B93" s="14">
-        <v>119.8532</v>
+        <v>120.4034</v>
       </c>
       <c r="C93" s="15">
-        <v>-1.46</v>
+        <v>-0.29</v>
       </c>
       <c r="D93" s="16">
-        <v>707592</v>
+        <v>1024926</v>
       </c>
       <c r="E93" s="12"/>
       <c r="F93" s="12"/>
@@ -2303,13 +2321,13 @@
         <v>99</v>
       </c>
       <c r="B94" s="14">
-        <v>121.6294</v>
+        <v>120.7502</v>
       </c>
       <c r="C94" s="15">
-        <v>1.12</v>
+        <v>0.73</v>
       </c>
       <c r="D94" s="16">
-        <v>674616</v>
+        <v>1004562</v>
       </c>
       <c r="E94" s="12"/>
       <c r="F94" s="12"/>
@@ -2319,13 +2337,13 @@
         <v>100</v>
       </c>
       <c r="B95" s="14">
-        <v>120.2785</v>
+        <v>119.8728</v>
       </c>
       <c r="C95" s="15">
-        <v>-0.02</v>
+        <v>-0.6</v>
       </c>
       <c r="D95" s="16">
-        <v>638432</v>
+        <v>970004</v>
       </c>
       <c r="E95" s="12"/>
       <c r="F95" s="12"/>
@@ -2335,13 +2353,13 @@
         <v>101</v>
       </c>
       <c r="B96" s="14">
-        <v>120.3006</v>
+        <v>120.6004</v>
       </c>
       <c r="C96" s="15">
-        <v>-0.33</v>
+        <v>0.35</v>
       </c>
       <c r="D96" s="16">
-        <v>582746</v>
+        <v>855569</v>
       </c>
       <c r="E96" s="12"/>
       <c r="F96" s="12"/>
@@ -2351,13 +2369,13 @@
         <v>102</v>
       </c>
       <c r="B97" s="14">
-        <v>120.6971</v>
+        <v>120.1746</v>
       </c>
       <c r="C97" s="15">
-        <v>0.69</v>
+        <v>0.88</v>
       </c>
       <c r="D97" s="16">
-        <v>571304</v>
+        <v>812604</v>
       </c>
       <c r="E97" s="12"/>
       <c r="F97" s="12"/>
@@ -2367,13 +2385,13 @@
         <v>103</v>
       </c>
       <c r="B98" s="14">
-        <v>119.8736</v>
+        <v>119.1224</v>
       </c>
       <c r="C98" s="15">
-        <v>1.12</v>
+        <v>-0.61</v>
       </c>
       <c r="D98" s="16">
-        <v>547899</v>
+        <v>779869</v>
       </c>
       <c r="E98" s="12"/>
       <c r="F98" s="12"/>
@@ -2383,13 +2401,13 @@
         <v>104</v>
       </c>
       <c r="B99" s="14">
-        <v>118.5507</v>
+        <v>119.8532</v>
       </c>
       <c r="C99" s="15">
-        <v>-0.39</v>
+        <v>-1.46</v>
       </c>
       <c r="D99" s="16">
-        <v>539122</v>
+        <v>707592</v>
       </c>
       <c r="E99" s="12"/>
       <c r="F99" s="12"/>
@@ -2399,13 +2417,13 @@
         <v>105</v>
       </c>
       <c r="B100" s="14">
-        <v>119.0084</v>
+        <v>121.6294</v>
       </c>
       <c r="C100" s="15">
-        <v>0.19</v>
+        <v>1.12</v>
       </c>
       <c r="D100" s="16">
-        <v>532531</v>
+        <v>674616</v>
       </c>
       <c r="E100" s="12"/>
       <c r="F100" s="12"/>
@@ -2415,13 +2433,13 @@
         <v>106</v>
       </c>
       <c r="B101" s="14">
-        <v>118.7797</v>
+        <v>120.2785</v>
       </c>
       <c r="C101" s="15">
-        <v>-0.64</v>
+        <v>-0.02</v>
       </c>
       <c r="D101" s="16">
-        <v>517833</v>
+        <v>638432</v>
       </c>
       <c r="E101" s="12"/>
       <c r="F101" s="12"/>
@@ -2431,13 +2449,13 @@
         <v>107</v>
       </c>
       <c r="B102" s="14">
-        <v>119.5389</v>
+        <v>120.3006</v>
       </c>
       <c r="C102" s="15">
-        <v>0.48</v>
+        <v>-0.33</v>
       </c>
       <c r="D102" s="16">
-        <v>333809</v>
+        <v>582746</v>
       </c>
       <c r="E102" s="12"/>
       <c r="F102" s="12"/>
@@ -2447,13 +2465,13 @@
         <v>108</v>
       </c>
       <c r="B103" s="14">
-        <v>118.9741</v>
+        <v>120.6971</v>
       </c>
       <c r="C103" s="15">
-        <v>0.47</v>
+        <v>0.69</v>
       </c>
       <c r="D103" s="16">
-        <v>303179</v>
+        <v>571304</v>
       </c>
       <c r="E103" s="12"/>
       <c r="F103" s="12"/>
@@ -2463,13 +2481,13 @@
         <v>109</v>
       </c>
       <c r="B104" s="14">
-        <v>118.4181</v>
+        <v>119.8736</v>
       </c>
       <c r="C104" s="15">
-        <v>0.74</v>
+        <v>1.12</v>
       </c>
       <c r="D104" s="16">
-        <v>279520</v>
+        <v>547899</v>
       </c>
       <c r="E104" s="12"/>
       <c r="F104" s="12"/>
@@ -2479,13 +2497,13 @@
         <v>110</v>
       </c>
       <c r="B105" s="14">
-        <v>117.5446</v>
+        <v>118.5507</v>
       </c>
       <c r="C105" s="15">
-        <v>0.11</v>
+        <v>-0.39</v>
       </c>
       <c r="D105" s="16">
-        <v>224344</v>
+        <v>539122</v>
       </c>
       <c r="E105" s="12"/>
       <c r="F105" s="12"/>
@@ -2495,13 +2513,13 @@
         <v>111</v>
       </c>
       <c r="B106" s="14">
-        <v>117.4129</v>
+        <v>119.0084</v>
       </c>
       <c r="C106" s="15">
-        <v>0.17</v>
+        <v>0.19</v>
       </c>
       <c r="D106" s="16">
-        <v>212999</v>
+        <v>532531</v>
       </c>
       <c r="E106" s="12"/>
       <c r="F106" s="12"/>
@@ -2511,13 +2529,13 @@
         <v>112</v>
       </c>
       <c r="B107" s="14">
-        <v>117.2096</v>
+        <v>118.7797</v>
       </c>
       <c r="C107" s="15">
-        <v>1.02</v>
+        <v>-0.64</v>
       </c>
       <c r="D107" s="16">
-        <v>208472</v>
+        <v>517833</v>
       </c>
       <c r="E107" s="12"/>
       <c r="F107" s="12"/>
@@ -2527,13 +2545,13 @@
         <v>113</v>
       </c>
       <c r="B108" s="14">
-        <v>116.0317</v>
+        <v>119.5389</v>
       </c>
       <c r="C108" s="15">
-        <v>0.15</v>
+        <v>0.48</v>
       </c>
       <c r="D108" s="16">
-        <v>201455</v>
+        <v>333809</v>
       </c>
       <c r="E108" s="12"/>
       <c r="F108" s="12"/>
@@ -2543,13 +2561,13 @@
         <v>114</v>
       </c>
       <c r="B109" s="14">
-        <v>115.8605</v>
+        <v>118.9741</v>
       </c>
       <c r="C109" s="15">
-        <v>0.17</v>
+        <v>0.47</v>
       </c>
       <c r="D109" s="16">
-        <v>177136</v>
+        <v>303179</v>
       </c>
       <c r="E109" s="12"/>
       <c r="F109" s="12"/>
@@ -2559,13 +2577,13 @@
         <v>115</v>
       </c>
       <c r="B110" s="14">
-        <v>115.6626</v>
+        <v>118.4181</v>
       </c>
       <c r="C110" s="15">
-        <v>-0.03</v>
+        <v>0.74</v>
       </c>
       <c r="D110" s="16">
-        <v>174672</v>
+        <v>279520</v>
       </c>
       <c r="E110" s="12"/>
       <c r="F110" s="12"/>
@@ -2575,13 +2593,13 @@
         <v>116</v>
       </c>
       <c r="B111" s="14">
-        <v>115.7003</v>
+        <v>117.5446</v>
       </c>
       <c r="C111" s="15">
-        <v>0.03</v>
+        <v>0.11</v>
       </c>
       <c r="D111" s="16">
-        <v>174355</v>
+        <v>224344</v>
       </c>
       <c r="E111" s="12"/>
       <c r="F111" s="12"/>
@@ -2591,13 +2609,13 @@
         <v>117</v>
       </c>
       <c r="B112" s="14">
-        <v>115.6643</v>
+        <v>117.4129</v>
       </c>
       <c r="C112" s="15">
-        <v>1.26</v>
+        <v>0.17</v>
       </c>
       <c r="D112" s="16">
-        <v>171836</v>
+        <v>212999</v>
       </c>
       <c r="E112" s="12"/>
       <c r="F112" s="12"/>
@@ -2607,13 +2625,13 @@
         <v>118</v>
       </c>
       <c r="B113" s="14">
-        <v>114.2305</v>
+        <v>117.2096</v>
       </c>
       <c r="C113" s="15">
-        <v>-1.44</v>
+        <v>1.02</v>
       </c>
       <c r="D113" s="16">
-        <v>168640</v>
+        <v>208472</v>
       </c>
       <c r="E113" s="12"/>
       <c r="F113" s="12"/>
@@ -2623,13 +2641,13 @@
         <v>119</v>
       </c>
       <c r="B114" s="14">
-        <v>115.895</v>
+        <v>116.0317</v>
       </c>
       <c r="C114" s="15">
-        <v>0.52</v>
+        <v>0.15</v>
       </c>
       <c r="D114" s="16">
-        <v>152160</v>
+        <v>201455</v>
       </c>
       <c r="E114" s="12"/>
       <c r="F114" s="12"/>
@@ -2639,13 +2657,13 @@
         <v>120</v>
       </c>
       <c r="B115" s="14">
-        <v>115.2905</v>
+        <v>115.8605</v>
       </c>
       <c r="C115" s="15">
-        <v>0.29</v>
+        <v>0.17</v>
       </c>
       <c r="D115" s="16">
-        <v>139488</v>
+        <v>177136</v>
       </c>
       <c r="E115" s="12"/>
       <c r="F115" s="12"/>
@@ -2655,13 +2673,13 @@
         <v>121</v>
       </c>
       <c r="B116" s="14">
-        <v>114.9604</v>
+        <v>115.6626</v>
       </c>
       <c r="C116" s="15">
-        <v>0.42</v>
+        <v>-0.03</v>
       </c>
       <c r="D116" s="16">
-        <v>131512</v>
+        <v>174672</v>
       </c>
       <c r="E116" s="12"/>
       <c r="F116" s="12"/>
@@ -2671,13 +2689,13 @@
         <v>122</v>
       </c>
       <c r="B117" s="14">
-        <v>114.4793</v>
+        <v>115.7003</v>
       </c>
       <c r="C117" s="15">
-        <v>-0.69</v>
+        <v>0.03</v>
       </c>
       <c r="D117" s="16">
-        <v>98616</v>
+        <v>174355</v>
       </c>
       <c r="E117" s="12"/>
       <c r="F117" s="12"/>
@@ -2687,13 +2705,13 @@
         <v>123</v>
       </c>
       <c r="B118" s="14">
-        <v>115.2789</v>
+        <v>115.6643</v>
       </c>
       <c r="C118" s="15">
-        <v>-1.3</v>
+        <v>1.26</v>
       </c>
       <c r="D118" s="16">
-        <v>93368</v>
+        <v>171836</v>
       </c>
       <c r="E118" s="12"/>
       <c r="F118" s="12"/>
@@ -2703,13 +2721,13 @@
         <v>124</v>
       </c>
       <c r="B119" s="14">
-        <v>116.8004</v>
+        <v>114.2305</v>
       </c>
       <c r="C119" s="15">
-        <v>-1.03</v>
+        <v>-1.44</v>
       </c>
       <c r="D119" s="16">
-        <v>91265</v>
+        <v>168640</v>
       </c>
       <c r="E119" s="12"/>
       <c r="F119" s="12"/>
@@ -2719,13 +2737,13 @@
         <v>125</v>
       </c>
       <c r="B120" s="14">
-        <v>118.0124</v>
+        <v>115.895</v>
       </c>
       <c r="C120" s="15">
-        <v>0.51</v>
+        <v>0.52</v>
       </c>
       <c r="D120" s="16">
-        <v>76329</v>
+        <v>152160</v>
       </c>
       <c r="E120" s="12"/>
       <c r="F120" s="12"/>
@@ -2735,13 +2753,13 @@
         <v>126</v>
       </c>
       <c r="B121" s="14">
-        <v>117.4107</v>
+        <v>115.2905</v>
       </c>
       <c r="C121" s="15">
-        <v>1.81</v>
+        <v>0.29</v>
       </c>
       <c r="D121" s="16">
-        <v>75528</v>
+        <v>139488</v>
       </c>
       <c r="E121" s="12"/>
       <c r="F121" s="12"/>
@@ -2751,13 +2769,13 @@
         <v>127</v>
       </c>
       <c r="B122" s="14">
-        <v>115.327</v>
+        <v>114.9604</v>
       </c>
       <c r="C122" s="15">
-        <v>-1.12</v>
+        <v>0.42</v>
       </c>
       <c r="D122" s="16">
-        <v>73900</v>
+        <v>131512</v>
       </c>
       <c r="E122" s="12"/>
       <c r="F122" s="12"/>
@@ -2767,13 +2785,13 @@
         <v>128</v>
       </c>
       <c r="B123" s="14">
-        <v>116.6346</v>
+        <v>114.4793</v>
       </c>
       <c r="C123" s="15">
-        <v>-2.13</v>
+        <v>-0.69</v>
       </c>
       <c r="D123" s="16">
-        <v>73925</v>
+        <v>98616</v>
       </c>
       <c r="E123" s="12"/>
       <c r="F123" s="12"/>
@@ -2783,13 +2801,13 @@
         <v>129</v>
       </c>
       <c r="B124" s="14">
-        <v>119.1731</v>
+        <v>115.2789</v>
       </c>
       <c r="C124" s="15">
-        <v>0.04</v>
+        <v>-1.3</v>
       </c>
       <c r="D124" s="16">
-        <v>71887</v>
+        <v>93368</v>
       </c>
       <c r="E124" s="12"/>
       <c r="F124" s="12"/>
@@ -2799,13 +2817,13 @@
         <v>130</v>
       </c>
       <c r="B125" s="14">
-        <v>119.124</v>
+        <v>116.8004</v>
       </c>
       <c r="C125" s="15">
-        <v>0.18</v>
+        <v>-1.03</v>
       </c>
       <c r="D125" s="16">
-        <v>67570</v>
+        <v>91265</v>
       </c>
       <c r="E125" s="12"/>
       <c r="F125" s="12"/>
@@ -2815,13 +2833,13 @@
         <v>131</v>
       </c>
       <c r="B126" s="14">
-        <v>118.9163</v>
+        <v>118.0124</v>
       </c>
       <c r="C126" s="15">
-        <v>-0.32</v>
+        <v>0.51</v>
       </c>
       <c r="D126" s="16">
-        <v>61350</v>
+        <v>76329</v>
       </c>
       <c r="E126" s="12"/>
       <c r="F126" s="12"/>
@@ -2831,13 +2849,13 @@
         <v>132</v>
       </c>
       <c r="B127" s="14">
-        <v>119.2963</v>
+        <v>117.4107</v>
       </c>
       <c r="C127" s="15">
-        <v>0.88</v>
+        <v>1.81</v>
       </c>
       <c r="D127" s="16">
-        <v>46208</v>
+        <v>75528</v>
       </c>
       <c r="E127" s="12"/>
       <c r="F127" s="12"/>
@@ -2847,13 +2865,13 @@
         <v>133</v>
       </c>
       <c r="B128" s="14">
-        <v>118.2555</v>
+        <v>115.327</v>
       </c>
       <c r="C128" s="15">
-        <v>0.43</v>
+        <v>-1.12</v>
       </c>
       <c r="D128" s="16">
-        <v>40390</v>
+        <v>73900</v>
       </c>
       <c r="E128" s="12"/>
       <c r="F128" s="12"/>
@@ -2863,13 +2881,13 @@
         <v>134</v>
       </c>
       <c r="B129" s="14">
-        <v>117.7545</v>
+        <v>116.6346</v>
       </c>
       <c r="C129" s="15">
-        <v>2.04</v>
+        <v>-2.13</v>
       </c>
       <c r="D129" s="16">
-        <v>39114</v>
+        <v>73925</v>
       </c>
       <c r="E129" s="12"/>
       <c r="F129" s="12"/>
@@ -2879,13 +2897,13 @@
         <v>135</v>
       </c>
       <c r="B130" s="14">
-        <v>115.4039</v>
+        <v>119.1731</v>
       </c>
       <c r="C130" s="15">
-        <v>1.17</v>
+        <v>0.04</v>
       </c>
       <c r="D130" s="16">
-        <v>38151</v>
+        <v>71887</v>
       </c>
       <c r="E130" s="12"/>
       <c r="F130" s="12"/>
@@ -2895,13 +2913,13 @@
         <v>136</v>
       </c>
       <c r="B131" s="14">
-        <v>114.0721</v>
+        <v>119.124</v>
       </c>
       <c r="C131" s="15">
-        <v>-0.42</v>
+        <v>0.18</v>
       </c>
       <c r="D131" s="16">
-        <v>37695</v>
+        <v>67570</v>
       </c>
       <c r="E131" s="12"/>
       <c r="F131" s="12"/>
@@ -2911,13 +2929,13 @@
         <v>137</v>
       </c>
       <c r="B132" s="14">
-        <v>114.5545</v>
+        <v>118.9163</v>
       </c>
       <c r="C132" s="15">
-        <v>1.15</v>
+        <v>-0.32</v>
       </c>
       <c r="D132" s="16">
-        <v>35320</v>
+        <v>61350</v>
       </c>
       <c r="E132" s="12"/>
       <c r="F132" s="12"/>
@@ -2927,13 +2945,13 @@
         <v>138</v>
       </c>
       <c r="B133" s="14">
-        <v>113.2502</v>
+        <v>119.2963</v>
       </c>
       <c r="C133" s="15">
-        <v>-0.7</v>
+        <v>0.88</v>
       </c>
       <c r="D133" s="16">
-        <v>33386</v>
+        <v>46208</v>
       </c>
       <c r="E133" s="12"/>
       <c r="F133" s="12"/>
@@ -2943,13 +2961,13 @@
         <v>139</v>
       </c>
       <c r="B134" s="14">
-        <v>114.0443</v>
+        <v>118.2555</v>
       </c>
       <c r="C134" s="15">
-        <v>0.23</v>
+        <v>0.43</v>
       </c>
       <c r="D134" s="16">
-        <v>29263</v>
+        <v>40390</v>
       </c>
       <c r="E134" s="12"/>
       <c r="F134" s="12"/>
@@ -2959,13 +2977,13 @@
         <v>140</v>
       </c>
       <c r="B135" s="14">
-        <v>113.7816</v>
+        <v>117.7545</v>
       </c>
       <c r="C135" s="15">
-        <v>-0.04</v>
+        <v>2.04</v>
       </c>
       <c r="D135" s="16">
-        <v>28746</v>
+        <v>39114</v>
       </c>
       <c r="E135" s="12"/>
       <c r="F135" s="12"/>
@@ -2975,13 +2993,13 @@
         <v>141</v>
       </c>
       <c r="B136" s="14">
-        <v>113.8293</v>
+        <v>115.4039</v>
       </c>
       <c r="C136" s="15">
-        <v>-0.2</v>
+        <v>1.17</v>
       </c>
       <c r="D136" s="16">
-        <v>27943</v>
+        <v>38151</v>
       </c>
       <c r="E136" s="12"/>
       <c r="F136" s="12"/>
@@ -2991,13 +3009,13 @@
         <v>142</v>
       </c>
       <c r="B137" s="14">
-        <v>114.0562</v>
+        <v>114.0721</v>
       </c>
       <c r="C137" s="15">
-        <v>-0.09</v>
+        <v>-0.42</v>
       </c>
       <c r="D137" s="16">
-        <v>25044</v>
+        <v>37695</v>
       </c>
       <c r="E137" s="12"/>
       <c r="F137" s="12"/>
@@ -3007,13 +3025,13 @@
         <v>143</v>
       </c>
       <c r="B138" s="14">
-        <v>114.162</v>
+        <v>114.5545</v>
       </c>
       <c r="C138" s="15">
-        <v>0.85</v>
+        <v>1.15</v>
       </c>
       <c r="D138" s="16">
-        <v>23532</v>
+        <v>35320</v>
       </c>
       <c r="E138" s="12"/>
       <c r="F138" s="12"/>
@@ -3023,13 +3041,13 @@
         <v>144</v>
       </c>
       <c r="B139" s="14">
-        <v>113.2012</v>
+        <v>113.2502</v>
       </c>
       <c r="C139" s="15">
-        <v>-0.02</v>
+        <v>-0.7</v>
       </c>
       <c r="D139" s="16">
-        <v>16418</v>
+        <v>33386</v>
       </c>
       <c r="E139" s="12"/>
       <c r="F139" s="12"/>
@@ -3039,13 +3057,13 @@
         <v>145</v>
       </c>
       <c r="B140" s="14">
-        <v>113.2186</v>
+        <v>114.0443</v>
       </c>
       <c r="C140" s="15">
-        <v>0.01</v>
+        <v>0.23</v>
       </c>
       <c r="D140" s="16">
-        <v>15405</v>
+        <v>29263</v>
       </c>
       <c r="E140" s="12"/>
       <c r="F140" s="12"/>
@@ -3055,13 +3073,13 @@
         <v>146</v>
       </c>
       <c r="B141" s="14">
-        <v>113.2047</v>
+        <v>113.7816</v>
       </c>
       <c r="C141" s="15">
-        <v>1.11</v>
+        <v>-0.04</v>
       </c>
       <c r="D141" s="16">
-        <v>14808</v>
+        <v>28746</v>
       </c>
       <c r="E141" s="12"/>
       <c r="F141" s="12"/>
@@ -3071,13 +3089,13 @@
         <v>147</v>
       </c>
       <c r="B142" s="14">
-        <v>111.9598</v>
+        <v>113.8293</v>
       </c>
       <c r="C142" s="15">
-        <v>-0.72</v>
+        <v>-0.2</v>
       </c>
       <c r="D142" s="16">
-        <v>13324</v>
+        <v>27943</v>
       </c>
       <c r="E142" s="12"/>
       <c r="F142" s="12"/>
@@ -3087,13 +3105,13 @@
         <v>148</v>
       </c>
       <c r="B143" s="14">
-        <v>112.7766</v>
+        <v>114.0562</v>
       </c>
       <c r="C143" s="15">
-        <v>0.38</v>
+        <v>-0.09</v>
       </c>
       <c r="D143" s="16">
-        <v>11951</v>
+        <v>25044</v>
       </c>
       <c r="E143" s="12"/>
       <c r="F143" s="12"/>
@@ -3103,13 +3121,13 @@
         <v>149</v>
       </c>
       <c r="B144" s="14">
-        <v>112.3461</v>
+        <v>114.162</v>
       </c>
       <c r="C144" s="15">
-        <v>0.88</v>
+        <v>0.85</v>
       </c>
       <c r="D144" s="16">
-        <v>7638</v>
+        <v>23532</v>
       </c>
       <c r="E144" s="12"/>
       <c r="F144" s="12"/>
@@ -3119,13 +3137,13 @@
         <v>150</v>
       </c>
       <c r="B145" s="14">
-        <v>111.3676</v>
+        <v>113.2012</v>
       </c>
       <c r="C145" s="15">
-        <v>0.33</v>
+        <v>-0.02</v>
       </c>
       <c r="D145" s="16">
-        <v>6736</v>
+        <v>16418</v>
       </c>
       <c r="E145" s="12"/>
       <c r="F145" s="12"/>
@@ -3135,13 +3153,13 @@
         <v>151</v>
       </c>
       <c r="B146" s="14">
-        <v>111.0016</v>
+        <v>113.2186</v>
       </c>
       <c r="C146" s="15">
-        <v>1.47</v>
+        <v>0.01</v>
       </c>
       <c r="D146" s="16">
-        <v>6521</v>
+        <v>15405</v>
       </c>
       <c r="E146" s="12"/>
       <c r="F146" s="12"/>
@@ -3151,13 +3169,13 @@
         <v>152</v>
       </c>
       <c r="B147" s="14">
-        <v>109.3926</v>
+        <v>113.2047</v>
       </c>
       <c r="C147" s="15">
-        <v>-0.4</v>
+        <v>1.11</v>
       </c>
       <c r="D147" s="16">
-        <v>6147</v>
+        <v>14808</v>
       </c>
       <c r="E147" s="12"/>
       <c r="F147" s="12"/>
@@ -3167,13 +3185,13 @@
         <v>153</v>
       </c>
       <c r="B148" s="14">
-        <v>109.8347</v>
+        <v>111.9598</v>
       </c>
       <c r="C148" s="15">
-        <v>1.27</v>
+        <v>-0.72</v>
       </c>
       <c r="D148" s="16">
-        <v>5381</v>
+        <v>13324</v>
       </c>
       <c r="E148" s="12"/>
       <c r="F148" s="12"/>
@@ -3183,13 +3201,13 @@
         <v>154</v>
       </c>
       <c r="B149" s="14">
-        <v>108.4628</v>
+        <v>112.7766</v>
       </c>
       <c r="C149" s="15">
-        <v>-0.98</v>
+        <v>0.38</v>
       </c>
       <c r="D149" s="16">
-        <v>4975</v>
+        <v>11951</v>
       </c>
       <c r="E149" s="12"/>
       <c r="F149" s="12"/>
@@ -3199,13 +3217,13 @@
         <v>155</v>
       </c>
       <c r="B150" s="14">
-        <v>109.5329</v>
+        <v>112.3461</v>
       </c>
       <c r="C150" s="15">
-        <v>1.31</v>
+        <v>0.88</v>
       </c>
       <c r="D150" s="16">
-        <v>4423</v>
+        <v>7638</v>
       </c>
       <c r="E150" s="12"/>
       <c r="F150" s="12"/>
@@ -3215,13 +3233,13 @@
         <v>156</v>
       </c>
       <c r="B151" s="14">
-        <v>108.1217</v>
+        <v>111.3676</v>
       </c>
       <c r="C151" s="15">
-        <v>0.8</v>
+        <v>0.33</v>
       </c>
       <c r="D151" s="16">
-        <v>1540</v>
+        <v>6736</v>
       </c>
       <c r="E151" s="12"/>
       <c r="F151" s="12"/>
@@ -3231,13 +3249,13 @@
         <v>157</v>
       </c>
       <c r="B152" s="14">
-        <v>107.2595</v>
+        <v>111.0016</v>
       </c>
       <c r="C152" s="15">
-        <v>0.68</v>
+        <v>1.47</v>
       </c>
       <c r="D152" s="16">
-        <v>1203</v>
+        <v>6521</v>
       </c>
       <c r="E152" s="12"/>
       <c r="F152" s="12"/>
@@ -3247,13 +3265,13 @@
         <v>158</v>
       </c>
       <c r="B153" s="14">
-        <v>106.5371</v>
+        <v>109.3926</v>
       </c>
       <c r="C153" s="15">
-        <v>-0.05</v>
+        <v>-0.4</v>
       </c>
       <c r="D153" s="16">
-        <v>1160</v>
+        <v>6147</v>
       </c>
       <c r="E153" s="12"/>
       <c r="F153" s="12"/>
@@ -3263,13 +3281,13 @@
         <v>159</v>
       </c>
       <c r="B154" s="14">
-        <v>106.5848</v>
+        <v>109.8347</v>
       </c>
       <c r="C154" s="15">
-        <v>1.62</v>
+        <v>1.27</v>
       </c>
       <c r="D154" s="16">
-        <v>1087</v>
+        <v>5381</v>
       </c>
       <c r="E154" s="12"/>
       <c r="F154" s="12"/>
@@ -3279,13 +3297,13 @@
         <v>160</v>
       </c>
       <c r="B155" s="14">
-        <v>104.885</v>
+        <v>108.4628</v>
       </c>
       <c r="C155" s="15">
-        <v>0.88</v>
+        <v>-0.98</v>
       </c>
       <c r="D155" s="16">
-        <v>1064</v>
+        <v>4975</v>
       </c>
       <c r="E155" s="12"/>
       <c r="F155" s="12"/>
@@ -3295,13 +3313,13 @@
         <v>161</v>
       </c>
       <c r="B156" s="14">
-        <v>103.9697</v>
+        <v>109.5329</v>
       </c>
       <c r="C156" s="15">
-        <v>0.95</v>
+        <v>1.31</v>
       </c>
       <c r="D156" s="16">
-        <v>1007</v>
+        <v>4423</v>
       </c>
       <c r="E156" s="12"/>
       <c r="F156" s="12"/>
@@ -3311,13 +3329,13 @@
         <v>162</v>
       </c>
       <c r="B157" s="14">
-        <v>102.9955</v>
+        <v>108.1217</v>
       </c>
       <c r="C157" s="15">
-        <v>0.1</v>
+        <v>0.8</v>
       </c>
       <c r="D157" s="16">
-        <v>1011</v>
+        <v>1540</v>
       </c>
       <c r="E157" s="12"/>
       <c r="F157" s="12"/>
@@ -3327,13 +3345,13 @@
         <v>163</v>
       </c>
       <c r="B158" s="14">
-        <v>102.8921</v>
+        <v>107.2595</v>
       </c>
       <c r="C158" s="15">
-        <v>0.3</v>
+        <v>0.68</v>
       </c>
       <c r="D158" s="16">
-        <v>1000</v>
+        <v>1203</v>
       </c>
       <c r="E158" s="12"/>
       <c r="F158" s="12"/>
@@ -3343,13 +3361,13 @@
         <v>164</v>
       </c>
       <c r="B159" s="14">
-        <v>102.5829</v>
+        <v>106.5371</v>
       </c>
       <c r="C159" s="15">
-        <v>0.75</v>
+        <v>-0.05</v>
       </c>
       <c r="D159" s="16">
-        <v>987</v>
+        <v>1160</v>
       </c>
       <c r="E159" s="12"/>
       <c r="F159" s="12"/>
@@ -3359,13 +3377,13 @@
         <v>165</v>
       </c>
       <c r="B160" s="14">
-        <v>101.8247</v>
+        <v>106.5848</v>
       </c>
       <c r="C160" s="15">
-        <v>0.37</v>
+        <v>1.62</v>
       </c>
       <c r="D160" s="16">
-        <v>823</v>
+        <v>1087</v>
       </c>
       <c r="E160" s="12"/>
       <c r="F160" s="12"/>
@@ -3375,13 +3393,13 @@
         <v>166</v>
       </c>
       <c r="B161" s="14">
-        <v>101.4515</v>
+        <v>104.885</v>
       </c>
       <c r="C161" s="15">
-        <v>0.86</v>
+        <v>0.88</v>
       </c>
       <c r="D161" s="16">
-        <v>782</v>
+        <v>1064</v>
       </c>
       <c r="E161" s="12"/>
       <c r="F161" s="12"/>
@@ -3391,13 +3409,13 @@
         <v>167</v>
       </c>
       <c r="B162" s="14">
-        <v>100.5858</v>
+        <v>103.9697</v>
       </c>
       <c r="C162" s="15">
-        <v>-1.46</v>
+        <v>0.95</v>
       </c>
       <c r="D162" s="16">
-        <v>686</v>
+        <v>1007</v>
       </c>
       <c r="E162" s="12"/>
       <c r="F162" s="12"/>
@@ -3407,13 +3425,13 @@
         <v>168</v>
       </c>
       <c r="B163" s="14">
-        <v>102.0741</v>
+        <v>102.9955</v>
       </c>
       <c r="C163" s="15">
-        <v>-0.69</v>
+        <v>0.1</v>
       </c>
       <c r="D163" s="16">
-        <v>142</v>
+        <v>1011</v>
       </c>
       <c r="E163" s="12"/>
       <c r="F163" s="12"/>
@@ -3423,13 +3441,13 @@
         <v>169</v>
       </c>
       <c r="B164" s="14">
-        <v>102.7852</v>
+        <v>102.8921</v>
       </c>
       <c r="C164" s="15">
-        <v>0.34</v>
+        <v>0.3</v>
       </c>
       <c r="D164" s="16">
-        <v>72</v>
+        <v>1000</v>
       </c>
       <c r="E164" s="12"/>
       <c r="F164" s="12"/>
@@ -3439,13 +3457,13 @@
         <v>170</v>
       </c>
       <c r="B165" s="14">
-        <v>102.4336</v>
+        <v>102.5829</v>
       </c>
       <c r="C165" s="15">
-        <v>1.11</v>
+        <v>0.75</v>
       </c>
       <c r="D165" s="16">
-        <v>54</v>
+        <v>987</v>
       </c>
       <c r="E165" s="12"/>
       <c r="F165" s="12"/>
@@ -3455,13 +3473,13 @@
         <v>171</v>
       </c>
       <c r="B166" s="14">
-        <v>101.309</v>
+        <v>101.8247</v>
       </c>
       <c r="C166" s="15">
-        <v>1.31</v>
+        <v>0.37</v>
       </c>
       <c r="D166" s="16">
-        <v>53</v>
+        <v>823</v>
       </c>
       <c r="E166" s="12"/>
       <c r="F166" s="12"/>
@@ -3471,13 +3489,13 @@
         <v>172</v>
       </c>
       <c r="B167" s="14">
-        <v>100.0034</v>
+        <v>101.4515</v>
       </c>
       <c r="C167" s="15">
-        <v>0</v>
+        <v>0.86</v>
       </c>
       <c r="D167" s="16">
-        <v>53</v>
+        <v>782</v>
       </c>
       <c r="E167" s="12"/>
       <c r="F167" s="12"/>
@@ -3487,29 +3505,125 @@
         <v>173</v>
       </c>
       <c r="B168" s="14">
-        <v>100</v>
-      </c>
-      <c r="C168" s="17" t="s">
-        <v>174</v>
+        <v>100.5858</v>
+      </c>
+      <c r="C168" s="15">
+        <v>-1.46</v>
       </c>
       <c r="D168" s="16">
-        <v>0</v>
+        <v>686</v>
       </c>
       <c r="E168" s="12"/>
       <c r="F168" s="12"/>
     </row>
-    <row r="169" ht="35" customHeight="1">
-      <c r="A169" s="18" t="s">
+    <row r="169" s="12" customFormat="1">
+      <c r="A169" s="13" t="s">
+        <v>174</v>
+      </c>
+      <c r="B169" s="14">
+        <v>102.0741</v>
+      </c>
+      <c r="C169" s="15">
+        <v>-0.69</v>
+      </c>
+      <c r="D169" s="16">
+        <v>142</v>
+      </c>
+      <c r="E169" s="12"/>
+      <c r="F169" s="12"/>
+    </row>
+    <row r="170" s="12" customFormat="1">
+      <c r="A170" s="13" t="s">
         <v>175</v>
       </c>
-      <c r="B169" s="18" t="s">
-        <v>175</v>
-      </c>
-      <c r="C169" s="18" t="s">
-        <v>175</v>
-      </c>
-      <c r="D169" s="18" t="s">
-        <v>175</v>
+      <c r="B170" s="14">
+        <v>102.7852</v>
+      </c>
+      <c r="C170" s="15">
+        <v>0.34</v>
+      </c>
+      <c r="D170" s="16">
+        <v>72</v>
+      </c>
+      <c r="E170" s="12"/>
+      <c r="F170" s="12"/>
+    </row>
+    <row r="171" s="12" customFormat="1">
+      <c r="A171" s="13" t="s">
+        <v>176</v>
+      </c>
+      <c r="B171" s="14">
+        <v>102.4336</v>
+      </c>
+      <c r="C171" s="15">
+        <v>1.11</v>
+      </c>
+      <c r="D171" s="16">
+        <v>54</v>
+      </c>
+      <c r="E171" s="12"/>
+      <c r="F171" s="12"/>
+    </row>
+    <row r="172" s="12" customFormat="1">
+      <c r="A172" s="13" t="s">
+        <v>177</v>
+      </c>
+      <c r="B172" s="14">
+        <v>101.309</v>
+      </c>
+      <c r="C172" s="15">
+        <v>1.31</v>
+      </c>
+      <c r="D172" s="16">
+        <v>53</v>
+      </c>
+      <c r="E172" s="12"/>
+      <c r="F172" s="12"/>
+    </row>
+    <row r="173" s="12" customFormat="1">
+      <c r="A173" s="13" t="s">
+        <v>178</v>
+      </c>
+      <c r="B173" s="14">
+        <v>100.0034</v>
+      </c>
+      <c r="C173" s="15">
+        <v>0</v>
+      </c>
+      <c r="D173" s="16">
+        <v>53</v>
+      </c>
+      <c r="E173" s="12"/>
+      <c r="F173" s="12"/>
+    </row>
+    <row r="174" s="12" customFormat="1">
+      <c r="A174" s="13" t="s">
+        <v>179</v>
+      </c>
+      <c r="B174" s="14">
+        <v>100</v>
+      </c>
+      <c r="C174" s="17" t="s">
+        <v>180</v>
+      </c>
+      <c r="D174" s="16">
+        <v>0</v>
+      </c>
+      <c r="E174" s="12"/>
+      <c r="F174" s="12"/>
+    </row>
+    <row r="175" ht="35" customHeight="1">
+      <c r="A175" s="18" t="s">
+        <v>181</v>
+      </c>
+      <c r="B175" s="18" t="s">
+        <v>181</v>
+      </c>
+      <c r="C175" s="18" t="s">
+        <v>181</v>
+      </c>
+      <c r="D175" s="18" t="s">
+        <v>181</v>
       </c>
     </row>
   </sheetData>
@@ -3525,18 +3639,18 @@
     <mergeCell ref="E4:E4"/>
     <mergeCell ref="E5:E5"/>
     <mergeCell ref="A6:E6"/>
-    <mergeCell ref="A169:D169"/>
+    <mergeCell ref="A175:D175"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="A6" location="'Historique Cours'!A169" display="Se rendre en bas du document"/>
-    <hyperlink ref="B6" location="'Historique Cours'!A169" display="Se rendre en bas du document"/>
-    <hyperlink ref="C6" location="'Historique Cours'!A169" display="Se rendre en bas du document"/>
-    <hyperlink ref="D6" location="'Historique Cours'!A169" display="Se rendre en bas du document"/>
-    <hyperlink ref="E6" location="'Historique Cours'!A169" display="Se rendre en bas du document"/>
-    <hyperlink ref="A169" location="'Historique Cours'!A1" display="Se rendre en haut du document"/>
-    <hyperlink ref="B169" location="'Historique Cours'!A1" display="Se rendre en haut du document"/>
-    <hyperlink ref="C169" location="'Historique Cours'!A1" display="Se rendre en haut du document"/>
-    <hyperlink ref="D169" location="'Historique Cours'!A1" display="Se rendre en haut du document"/>
+    <hyperlink ref="A6" location="'Historique Cours'!A175" display="Se rendre en bas du document"/>
+    <hyperlink ref="B6" location="'Historique Cours'!A175" display="Se rendre en bas du document"/>
+    <hyperlink ref="C6" location="'Historique Cours'!A175" display="Se rendre en bas du document"/>
+    <hyperlink ref="D6" location="'Historique Cours'!A175" display="Se rendre en bas du document"/>
+    <hyperlink ref="E6" location="'Historique Cours'!A175" display="Se rendre en bas du document"/>
+    <hyperlink ref="A175" location="'Historique Cours'!A1" display="Se rendre en haut du document"/>
+    <hyperlink ref="B175" location="'Historique Cours'!A1" display="Se rendre en haut du document"/>
+    <hyperlink ref="C175" location="'Historique Cours'!A1" display="Se rendre en haut du document"/>
+    <hyperlink ref="D175" location="'Historique Cours'!A1" display="Se rendre en haut du document"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
